--- a/src/assets/zxsj_mb/zxtb_k231_xwmt.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k231_xwmt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>年度</t>
   </si>
@@ -43,6 +43,9 @@
     <t>《新闻晨报》</t>
   </si>
   <si>
+    <t>说明</t>
+  </si>
+  <si>
     <t>《解放日报》</t>
   </si>
 </sst>
@@ -73,73 +76,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -148,9 +84,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,7 +144,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,13 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -226,49 +229,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,133 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,32 +434,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +479,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -540,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,141 +555,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1017,7 +1023,9 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1051,7 +1059,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:6">
       <c r="A2" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="2">
         <v>51252</v>
@@ -1065,11 +1073,13 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:6">
       <c r="A3" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B3" s="2">
         <v>51252</v>
@@ -1081,9 +1091,9 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
